--- a/data/trans_camb/P1428-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1428-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-7.587105926067816</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-4.357764351691385</v>
+        <v>-4.357764351691383</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-12.39659762455934</v>
@@ -655,7 +655,7 @@
         <v>-13.21358076699073</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-4.62544228953207</v>
+        <v>-4.625442289532067</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-11.25467465908634</v>
@@ -664,7 +664,7 @@
         <v>-11.63286774623094</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-5.21127719776954</v>
+        <v>-5.211277197769537</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.40670726802561</v>
+        <v>-10.45744560926804</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.70578186491383</v>
+        <v>-10.52662166840899</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.010967449886387</v>
+        <v>-7.794076809614214</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-16.15981699018489</v>
+        <v>-15.70884386185564</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-16.54144023847814</v>
+        <v>-16.37038757546543</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-8.501639035933014</v>
+        <v>-8.405690094927785</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-13.45502631146201</v>
+        <v>-13.48169486424073</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-13.99915124354927</v>
+        <v>-13.9120527308079</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.773676257712725</v>
+        <v>-7.957238007837653</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-4.732682167327034</v>
+        <v>-4.618031008826938</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.991411484843746</v>
+        <v>-4.957349007524286</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.9481475644073029</v>
+        <v>-0.9813295164435609</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-8.789407144035827</v>
+        <v>-9.106119728956982</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-9.62731011686995</v>
+        <v>-9.656891479032206</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.7371111847649598</v>
+        <v>-0.6950207518935756</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-8.701567771575974</v>
+        <v>-8.672193742674448</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-9.378953480409153</v>
+        <v>-9.094168920990029</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-2.501260828771846</v>
+        <v>-2.606305133415869</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.6515446791415406</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3742241381581349</v>
+        <v>-0.3742241381581348</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.5087434018936343</v>
@@ -760,7 +760,7 @@
         <v>-0.5422715356411452</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1898233141791495</v>
+        <v>-0.1898233141791494</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.5791237186580681</v>
@@ -769,7 +769,7 @@
         <v>-0.5985841289881998</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2681529516531838</v>
+        <v>-0.2681529516531837</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7566089431487293</v>
+        <v>-0.7617970829246291</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7605640618021683</v>
+        <v>-0.7612847094512499</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5857225731273724</v>
+        <v>-0.5734689231095256</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6058856698797513</v>
+        <v>-0.5969172520108567</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6238304170508966</v>
+        <v>-0.6224987459831154</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3215758542613857</v>
+        <v>-0.3171974863652685</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6502507754281558</v>
+        <v>-0.6447905377788229</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6654487460500782</v>
+        <v>-0.6619136407243713</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3728238301913103</v>
+        <v>-0.3807572158223619</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.4722792388424877</v>
+        <v>-0.4578522613322802</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.5065281488020286</v>
+        <v>-0.4949781262952108</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.08008872185159295</v>
+        <v>-0.0925624152734047</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.3922254342007647</v>
+        <v>-0.3999892612031704</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.433485927232211</v>
+        <v>-0.4364518342324945</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.03217447133774252</v>
+        <v>-0.02960962700235066</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.4891531291986035</v>
+        <v>-0.4943864063162484</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.5250100955946269</v>
+        <v>-0.5112993186937932</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1396125355820912</v>
+        <v>-0.145736591290214</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-3.549048266150481</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.871271786707319</v>
+        <v>-1.871271786707318</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-3.944711934000769</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.611065150207948</v>
+        <v>-3.840735448535391</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.713489099232887</v>
+        <v>-5.386271666800117</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.902004176931824</v>
+        <v>-3.829961598046458</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.022223805921028</v>
+        <v>-7.130395255367864</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.71323484125062</v>
+        <v>-10.59187257739683</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.3823923518844</v>
+        <v>-5.416950733750377</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.407154212160283</v>
+        <v>-4.421333967223066</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-7.254375197482838</v>
+        <v>-7.196063241973727</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.611607141650348</v>
+        <v>-3.625450589803273</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6919645812816061</v>
+        <v>0.759965009755576</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.79667464770859</v>
+        <v>-1.607281074127592</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08029143149817272</v>
+        <v>0.1869675662624398</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.612328369681828</v>
+        <v>-1.117502122168848</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-4.572314193775043</v>
+        <v>-4.631952704598191</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5148239992717918</v>
+        <v>0.4345291501924134</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.4818728874704274</v>
+        <v>-0.4846324861618711</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-3.634654511442299</v>
+        <v>-3.510386634146996</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.132240390733847</v>
+        <v>-0.04330685560622856</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.5058149639535413</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2666960831071743</v>
+        <v>-0.2666960831071741</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.226093517766673</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4459407096426284</v>
+        <v>-0.4747489798240321</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6894379105540058</v>
+        <v>-0.6687832948082404</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4823804362914762</v>
+        <v>-0.4751270071601802</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3694341326642399</v>
+        <v>-0.3739536601486316</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5623616090101508</v>
+        <v>-0.5627754445427136</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2793574931265689</v>
+        <v>-0.2825585346383437</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3372307644897899</v>
+        <v>-0.3333982976472669</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5497481168012037</v>
+        <v>-0.5489270425588852</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2709837023042315</v>
+        <v>-0.2767906778268561</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1413443678780186</v>
+        <v>0.1298698760667678</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.2868739306599361</v>
+        <v>-0.2516231911309346</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.01391954373862117</v>
+        <v>0.03105085348930701</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.03351772145063813</v>
+        <v>-0.07178160507860772</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2850905204031231</v>
+        <v>-0.2838259657306402</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03398843377954408</v>
+        <v>0.0280298231741715</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.04468696299691972</v>
+        <v>-0.03891783888989295</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.3175903606153853</v>
+        <v>-0.3114085399189103</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.01152923955351526</v>
+        <v>-0.008535758284564978</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.462302820370457</v>
+        <v>-1.510067607631174</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.858726196645464</v>
+        <v>-3.769784524426896</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.815737253733401</v>
+        <v>-2.684408752165719</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.536926101395002</v>
+        <v>-5.713095157180102</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-9.081120406431324</v>
+        <v>-8.496391946850087</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.087688028168672</v>
+        <v>-3.62070440791845</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.417882944462829</v>
+        <v>-2.52003787485574</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.301941244601953</v>
+        <v>-5.609084450975887</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-2.350135617527131</v>
+        <v>-2.398829174072861</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.480667708302315</v>
+        <v>2.610359066555058</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.2987609323662813</v>
+        <v>-0.2780918465771111</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5582739408749194</v>
+        <v>0.7363671754738282</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.874265410174177</v>
+        <v>0.6173284449908493</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-2.92644411727716</v>
+        <v>-2.427184567102589</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.701146168616525</v>
+        <v>1.442565974806131</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.186228618417424</v>
+        <v>1.159706970667161</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.734128950986045</v>
+        <v>-2.084311590991297</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8694221447468203</v>
+        <v>0.7479922827004165</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2398093425046503</v>
+        <v>-0.2578648194345224</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6434418900898151</v>
+        <v>-0.6308394929853007</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4566035136485214</v>
+        <v>-0.4422090743344292</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3570040400084847</v>
+        <v>-0.3611728146037809</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5756587544084815</v>
+        <v>-0.5641461456330975</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2640560572403895</v>
+        <v>-0.2329032814342115</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2462898811114338</v>
+        <v>-0.2527932776920143</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5303771399365467</v>
+        <v>-0.543073572123201</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.227424849698676</v>
+        <v>-0.2328202474947781</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.6047448516195224</v>
+        <v>0.6216659640869674</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.02484298873769596</v>
+        <v>-0.0712906832671029</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1386258543376217</v>
+        <v>0.1791369600905253</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.07560673956540735</v>
+        <v>0.05218006213824229</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2039642420208685</v>
+        <v>-0.1936017495948105</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1423822460091414</v>
+        <v>0.1156657038558892</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1386513633751169</v>
+        <v>0.1356265972736946</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2070364206843734</v>
+        <v>-0.2404154122805872</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1069696143610512</v>
+        <v>0.09361564861224377</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.535431328008805</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.6565151872077359</v>
+        <v>-0.6565151872077353</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.970787739091388</v>
@@ -1306,7 +1306,7 @@
         <v>-3.357492420304583</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.4851369707352421</v>
+        <v>0.4851369707352407</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.057713647074516</v>
+        <v>-4.497042779909457</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.495460891309662</v>
+        <v>-5.683787968098684</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.585771709578457</v>
+        <v>-3.50991625415699</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.727076237050599</v>
+        <v>-2.940018859744685</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-8.891391595256088</v>
+        <v>-8.799625400893477</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.233161049192109</v>
+        <v>-2.54248146781539</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.668332504705309</v>
+        <v>-2.208422856463054</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.023593382685548</v>
+        <v>-5.99149085961259</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.92059560060734</v>
+        <v>-1.871483923235782</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.273326284917152</v>
+        <v>1.961939006085783</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.575880666633819</v>
+        <v>0.4659945287841243</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.889724158333142</v>
+        <v>1.851423088116688</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.984789154348305</v>
+        <v>6.506084168340676</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.8134450227739797</v>
+        <v>-0.5808238678361366</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.837168755470806</v>
+        <v>4.57227587806636</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.131873760435253</v>
+        <v>3.125673240642485</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.054207137437775</v>
+        <v>-0.9688009574542374</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.638321433038267</v>
+        <v>2.710100716566123</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.3980712001387106</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1030750805963719</v>
+        <v>-0.1030750805963717</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1947162413526713</v>
@@ -1411,7 +1411,7 @@
         <v>-0.4200557162538068</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.06069546322457742</v>
+        <v>0.06069546322457724</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.535031649173883</v>
+        <v>-0.5500072063392983</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6806103246857798</v>
+        <v>-0.6859623297184929</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4088334416796405</v>
+        <v>-0.4170509566905672</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2213713350237757</v>
+        <v>-0.2288972865253851</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.692534661901047</v>
+        <v>-0.6935057871258823</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1766999418891607</v>
+        <v>-0.1913098784899567</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2862474148821669</v>
+        <v>-0.2466663528242328</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.62658464228014</v>
+        <v>-0.6243900335137721</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1937436845205133</v>
+        <v>-0.1860731523413675</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.504239663283805</v>
+        <v>0.4496199921749546</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1573624181488875</v>
+        <v>0.1565113342182432</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.451454388408727</v>
+        <v>0.4149032798284676</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8809347684602541</v>
+        <v>0.8220365846106661</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.06648503752767425</v>
+        <v>-0.06778821161169048</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.662610830201436</v>
+        <v>0.6291707768584254</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4821182938225938</v>
+        <v>0.4675575789638134</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1272763473007162</v>
+        <v>-0.1213039519733916</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4130922178600169</v>
+        <v>0.4174964887043409</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-8.189769188060504</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-3.245349870631217</v>
+        <v>-3.245349870631214</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-3.609501247341076</v>
@@ -1520,7 +1520,7 @@
         <v>-5.833459232643085</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-2.455006483945213</v>
+        <v>-2.45500648394521</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.194662408112471</v>
+        <v>-3.216303121447415</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.545722194717163</v>
+        <v>-4.677335423820658</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.987324738000925</v>
+        <v>-3.040506528529512</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-6.876300781819551</v>
+        <v>-6.848062239853022</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.983763683635578</v>
+        <v>-9.905690273881739</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.744857816130858</v>
+        <v>-4.849860918905784</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-4.644543270784941</v>
+        <v>-4.620886866061383</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-6.726805234233529</v>
+        <v>-6.8278709499059</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.482499266691398</v>
+        <v>-3.491425007932367</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.8014243774844316</v>
+        <v>-0.8671723543997832</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.386931351612336</v>
+        <v>-2.437194180357355</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.7172713922624064</v>
+        <v>-0.612195074149664</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-3.43916295308651</v>
+        <v>-3.212217970796346</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-6.630290776351429</v>
+        <v>-6.534386712657561</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-1.595265364609778</v>
+        <v>-1.753625461859592</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-2.569426919683932</v>
+        <v>-2.492906231450597</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-4.748759625017527</v>
+        <v>-4.769653312720465</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-1.457430657743435</v>
+        <v>-1.431673682268553</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.4897107368342724</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2521525029751243</v>
+        <v>-0.2521525029751242</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.2969002742275996</v>
@@ -1616,7 +1616,7 @@
         <v>-0.4670351193996161</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1850714384641559</v>
+        <v>-0.1850714384641557</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.2914799844550539</v>
@@ -1625,7 +1625,7 @@
         <v>-0.4710724529330866</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1982504514452072</v>
+        <v>-0.198250451445207</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4180018061382506</v>
+        <v>-0.4167080130250546</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5906179450725316</v>
+        <v>-0.5911324074240516</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3860741203283107</v>
+        <v>-0.3802873218743927</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3751559543574797</v>
+        <v>-0.3699530104792412</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.541023704579713</v>
+        <v>-0.5380424672876979</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2581754625222376</v>
+        <v>-0.2623840854904723</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3629733326267602</v>
+        <v>-0.3586269588937124</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5264963816678934</v>
+        <v>-0.5252850582118513</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2675101327891027</v>
+        <v>-0.2674471105720038</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1200885352241348</v>
+        <v>-0.1289271464679475</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.3623178399081235</v>
+        <v>-0.3774842106099115</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1138881517477659</v>
+        <v>-0.08695333834750481</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.2094423613113059</v>
+        <v>-0.190111857386872</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.3971577688365328</v>
+        <v>-0.390692463563737</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.09803410814110994</v>
+        <v>-0.103923889020293</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.2144671453618968</v>
+        <v>-0.2134302919654736</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.4011782294010965</v>
+        <v>-0.4017888437449412</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1241084421558178</v>
+        <v>-0.1216783928136922</v>
       </c>
     </row>
     <row r="34">
